--- a/xlsForms/Encuesta 7 Transporte.xlsx
+++ b/xlsForms/Encuesta 7 Transporte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA50B797-6B28-4FCD-B861-7A9ECCDD0569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABB5939-E085-4C7B-ADFE-494406845615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1246,11 +1246,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D31:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -1791,9 +1791,7 @@
       <c r="C35" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
@@ -1876,7 +1874,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>106</v>
       </c>
@@ -1930,7 +1928,9 @@
         <v>15</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="G43" s="7" t="s">
         <v>258</v>
       </c>
@@ -2654,7 +2654,7 @@
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
@@ -3059,7 +3059,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>

--- a/xlsForms/Encuesta 7 Transporte.xlsx
+++ b/xlsForms/Encuesta 7 Transporte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABB5939-E085-4C7B-ADFE-494406845615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFD4187-7088-4FEF-BBC0-BD9B1DDA2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="285">
   <si>
     <t>type</t>
   </si>
@@ -861,6 +861,27 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1NwFTMbrk9mSJhGlk1Iybn2G0fAhis974qiqEx-_gngE/edit?usp=drive_link</t>
+  </si>
+  <si>
+    <t>foto_act</t>
+  </si>
+  <si>
+    <t>Fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>img_act</t>
+  </si>
+  <si>
+    <t>Inserte una fotografía de la actividad</t>
+  </si>
+  <si>
+    <t>max-pixels=1024</t>
+  </si>
+  <si>
+    <t>parameters</t>
   </si>
 </sst>
 </file>
@@ -909,7 +930,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -932,11 +953,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -964,6 +996,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,13 +1279,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D31:D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -1261,9 +1296,10 @@
     <col min="7" max="7" width="37.140625" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,8 +1327,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1317,7 +1356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1345,12 +1384,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1375,7 +1414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1389,7 +1428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1403,7 +1442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1423,7 +1462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1437,12 +1476,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1492,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -1472,7 +1511,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1762,7 +1801,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -2554,7 +2593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -2568,7 +2607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>110</v>
       </c>
@@ -2582,7 +2621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -2596,7 +2635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -2610,7 +2649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -2624,7 +2663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>221</v>
       </c>
@@ -2635,10 +2674,61 @@
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>189</v>
       </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="J89" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2654,7 +2744,7 @@
       <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
@@ -3059,7 +3149,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
